--- a/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6032B-F12C-448A-88B1-7DE918D3413D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A637AA32-2725-4E6B-8EF3-8D7C9AC59D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2760" windowWidth="22215" windowHeight="10875" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba" sheetId="2" r:id="rId1"/>
@@ -581,7 +581,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5:A6"/>
       <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
@@ -589,18 +589,18 @@
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -663,7 +663,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -683,7 +683,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -703,7 +703,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -746,7 +746,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -766,7 +766,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -821,7 +821,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -843,10 +843,10 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" s="13"/>
     </row>
   </sheetData>
@@ -862,26 +862,26 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -915,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <v>0.40300000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="23">
         <f>F6-Sedan_Hamba!F6</f>
         <v>-0.746</v>
@@ -1149,18 +1149,18 @@
       <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1180,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1407,10 +1407,10 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" s="13"/>
     </row>
   </sheetData>
@@ -1434,18 +1434,18 @@
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1697,10 +1697,10 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" s="13"/>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A637AA32-2725-4E6B-8EF3-8D7C9AC59D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99518332-9018-4030-81A4-0566633ECAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11430" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba" sheetId="2" r:id="rId1"/>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId2"/>
     <sheet name="Bus_Makhulu" sheetId="3" r:id="rId3"/>
     <sheet name="Trailer_Kumanzi" sheetId="4" r:id="rId4"/>
+    <sheet name="FSAE_Achilles" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
   <si>
     <t>Units</t>
   </si>
@@ -126,6 +127,9 @@
   </si>
   <si>
     <t>sHitchF</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles</t>
   </si>
 </sst>
 </file>
@@ -586,7 +590,7 @@
       <selection activeCell="A5" sqref="A5:A6"/>
       <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,12 +866,12 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,4 +1711,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318D661-91D1-4A10-9129-831E0855B4F0}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-1.53</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-0.8</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15">
+        <v>-1.75</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
+        <f>0.619*2+0.2</f>
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <v>165</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18">
+        <v>43</v>
+      </c>
+      <c r="G13" s="18">
+        <v>192</v>
+      </c>
+      <c r="H13" s="18">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body2Axle.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53082F-B05B-431B-B449-DB3432C0551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DDAAB4-D130-451D-9B8E-101220BC00BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24390" windowHeight="11295" tabRatio="805" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="3435" yWindow="1350" windowWidth="21555" windowHeight="11295" tabRatio="805" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba" sheetId="2" r:id="rId1"/>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId2"/>
-    <sheet name="Bus_Makhulu" sheetId="3" r:id="rId3"/>
-    <sheet name="Trailer_Kumanzi" sheetId="4" r:id="rId4"/>
-    <sheet name="Trailer_Kumanzi_10m" sheetId="6" r:id="rId5"/>
-    <sheet name="FSAE_Achilles" sheetId="5" r:id="rId6"/>
+    <sheet name="SUV_Landy" sheetId="7" r:id="rId3"/>
+    <sheet name="Bus_Makhulu" sheetId="3" r:id="rId4"/>
+    <sheet name="Trailer_Kumanzi" sheetId="4" r:id="rId5"/>
+    <sheet name="Trailer_Kumanzi_10m" sheetId="6" r:id="rId6"/>
+    <sheet name="FSAE_Achilles" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -125,6 +126,9 @@
   </si>
   <si>
     <t>Trailer_Kumanzi_10m</t>
+  </si>
+  <si>
+    <t>SUV_Landy</t>
   </si>
 </sst>
 </file>
@@ -132,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,10 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +556,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -576,7 +577,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -596,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -610,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -624,7 +625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -638,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -657,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -676,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -685,21 +686,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>-1.2</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.42249999999999999</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -708,21 +705,17 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -731,21 +724,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -754,21 +743,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-4.0540000000000003</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -780,17 +765,13 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>1.869</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -799,17 +780,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>1500</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -821,19 +798,15 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>432</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>1922.7</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>2066</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1100,7 +1073,7 @@
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="19"/>
+      <c r="F18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,11 +1082,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20FFEFC-C6E7-4F75-951D-1868B7EC91CA}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13">
+        <v>-2.8</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1.2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.42249999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-1.4</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13">
+        <v>-4.0540000000000003</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <v>1.869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14">
+        <v>432</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1922.7</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493F09E0-9801-40FA-9292-81F0AE052B13}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1134,7 +1370,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1154,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1234,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1243,20 +1479,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>-4</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>1</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1265,20 +1498,17 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1287,20 +1517,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1309,20 +1536,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-9.7569999999999997</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1334,17 +1558,14 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f>2.5+0.2</f>
         <v>2.7</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1353,16 +1574,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>2550</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1374,18 +1592,15 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>930</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>3320</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>3990</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,12 +1608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B6647-2D88-4F6E-BD4D-F2A6B01902C7}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1419,7 +1634,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1439,7 +1654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1500,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1528,20 +1743,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>3.5</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1550,20 +1762,17 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1572,20 +1781,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>7.7988</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>1.4778</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1594,20 +1800,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-5.2</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>1.4778</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1619,17 +1822,14 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f>2.797</f>
         <v>2.7970000000000002</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1638,16 +1838,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>2550</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1659,18 +1856,15 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>930</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>3320</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>3990</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,14 +1872,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B801D35-05B7-4A1F-89D6-EA8D28306BDB}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5:A6"/>
       <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
@@ -1704,7 +1898,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1724,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1785,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1813,20 +2007,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>3.5</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1835,20 +2026,17 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1857,20 +2045,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>5.7988</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>1.4778</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1879,20 +2064,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-3.2</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>1.4778</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1904,17 +2086,14 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f>2.797</f>
         <v>2.7970000000000002</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1923,16 +2102,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>2550</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1944,26 +2120,15 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>930</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>3320</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>3990</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1971,12 +2136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318D661-91D1-4A10-9129-831E0855B4F0}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1997,7 +2162,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2017,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2031,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -2097,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2106,21 +2271,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>-0.8</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.28899999999999998</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2129,21 +2290,17 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>-1</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2152,21 +2309,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>0.25</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2175,21 +2328,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-1.75</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2201,18 +2350,14 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f>0.619*2+0.2</f>
         <v>1.4379999999999999</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2221,17 +2366,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>165</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2243,28 +2384,15 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>43</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>192</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>206</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
